--- a/Companies/Bank - Public/UCO Bank Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
+++ b/Companies/Bank - Public/UCO Bank Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '18</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '19</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '19</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '19</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '19</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '18</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '18</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1,935.16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1,927.39</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1,886.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1,996.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>2,077.93</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1,996.48</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1,886.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1,927.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1,935.16</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>2077.93</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1886.01</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>1964.594</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1,309.75</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,205.89</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1,547.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1,543.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>1,403.48</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1,543.03</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1,547.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1,205.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1,309.75</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1547.74</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>1205.89</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>1401.978</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>106.74</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>157.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>133.53</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>157.01</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>217.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>106.74</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>217.96</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>141.688</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>128.05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>110.84</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>130.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>120.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>189.71</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>120.01</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>130.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>110.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>128.05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>189.71</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>110.84</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>135.742</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>269.48</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>248.24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>366.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>630.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>728.87</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>630.08</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>366.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>248.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>269.48</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>728.87</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>248.24</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>448.676</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2,515.13</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,510.72</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,489.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,481.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2,538.44</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2,481.56</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,489.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2,510.72</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2,515.13</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>2538.44</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2481.56</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>2507.14</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>460.88</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>469.34</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>565.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>467.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>482.28</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>467.26</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>565.77</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>469.34</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>460.88</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>565.77</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>460.88</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>489.1059999999999</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>267.07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>224.09</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>402.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>296.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>305.76</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>296.35</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>402.34</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>224.09</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>267.07</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>402.34</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>224.09</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>299.122</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>506.10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>381.41</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>690.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,201.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,207.04</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,201.44</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>690.56</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>381.41</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>506.10</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1207.04</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>381.41</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>797.3100000000001</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1,642.54</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,399.56</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2,242.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,802.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,099.02</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1,802.89</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2,242.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,399.56</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1,642.54</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2242.58</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1399.56</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1837.318</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>-1,136.44</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-1,018.15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-1,552.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-601.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>-891.98</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-601.45</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-1,552.02</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-1,018.15</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-1,136.44</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>-601.45</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-1552.02</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>-1040.008</v>
       </c>
     </row>
     <row r="17">
@@ -976,32 +854,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>-19.41</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-19.41</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>-19.41</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-19.41</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>-19.41</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>-1,136.44</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-998.74</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-1,552.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-601.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>-891.98</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-601.45</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-1,552.02</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-998.74</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-1,136.44</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>-601.45</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-1552.02</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>-1036.126</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>-1,136.44</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-998.74</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-1,552.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-601.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>-891.98</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-601.45</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-1,552.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-998.74</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-1,136.44</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>-601.45</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-1552.02</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>-1036.126</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>3,955.14</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3,955.14</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5,423.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>7,362.20</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>7,362.20</t>
         </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5,423.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3,955.14</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3,955.14</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>7362.2</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>3955.14</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>5611.616</v>
       </c>
     </row>
     <row r="21">
@@ -1135,37 +977,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>5,165.25</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5,165.25</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6,012.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>6,021.22</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>6,021.22</t>
         </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6,012.22</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5,165.25</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5,165.25</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>6021.22</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>5165.25</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>5677.032</v>
       </c>
     </row>
     <row r="22"/>
@@ -1184,37 +1017,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>92.52</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>92.52</t>
         </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>93.29000000000001</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>91.986</v>
       </c>
     </row>
     <row r="25"/>
@@ -1233,37 +1057,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>-2.87</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-2.53</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-3.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>-1.21</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-3.43</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-2.53</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-2.87</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>-3.43</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>-2.182</v>
       </c>
     </row>
     <row r="28">
@@ -1274,37 +1089,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>-2.87</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-2.53</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-3.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>-1.21</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-3.43</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-2.53</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-2.87</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>-3.43</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>-2.182</v>
       </c>
     </row>
     <row r="29"/>
@@ -1323,37 +1129,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>-2.87</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-2.53</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-3.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>-1.21</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>-3.43</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-2.53</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-2.87</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>-3.43</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>-2.182</v>
       </c>
     </row>
     <row r="32">
@@ -1364,37 +1161,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>-2.87</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-2.53</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-3.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>-1.21</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>-3.43</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-2.53</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-2.87</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>-3.43</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>-2.182</v>
       </c>
     </row>
     <row r="33"/>
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>29,581.49</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>31,121.79</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>29,888.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29,431.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>25,665.14</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>29,431.60</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>29,888.33</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>31,121.79</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>29,581.49</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>31121.79</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>25665.14</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>29137.67</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>11,820.21</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>11,755.61</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9,649.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>8,781.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>7,238.33</t>
         </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>8,781.97</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>9,649.92</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>11,755.61</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>11,820.21</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>11820.21</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>7238.33</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>9849.208000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>21.87</t>
         </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>24.85</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>25.37</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>21.87</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>24.896</v>
       </c>
     </row>
     <row r="38">
@@ -1536,37 +1297,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>7.32</t>
         </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>12.48</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>11.97</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>10.094</v>
       </c>
     </row>
     <row r="39">
@@ -1577,37 +1329,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>-1.97</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-1.76</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-2.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-0.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>-1.41</t>
         </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>-0.98</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>-2.49</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-1.76</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-1.97</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>-2.49</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>-1.722</v>
       </c>
     </row>
     <row r="40"/>
@@ -1650,37 +1393,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>201809</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>201812</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>201909</t>
         </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>201906</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>201903</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>201812</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>201809</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>201909</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>201809</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>201867.8</v>
       </c>
     </row>
   </sheetData>
